--- a/Android/framework/Media.xlsx
+++ b/Android/framework/Media.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
     <sheet name="可更新的媒体组件" sheetId="4" r:id="rId2"/>
     <sheet name="媒体框架强化" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId5"/>
-    <sheet name="参照" sheetId="3" r:id="rId6"/>
+    <sheet name="媒体资源管理器的 SoC 供应商依赖项" sheetId="6" r:id="rId4"/>
+    <sheet name="媒体资源管理器的 OEM 依赖项" sheetId="7" r:id="rId5"/>
+    <sheet name="DRM" sheetId="8" r:id="rId6"/>
+    <sheet name="参照" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="374">
   <si>
     <t>★</t>
   </si>
@@ -424,13 +425,813 @@
   </si>
   <si>
     <t>提取器可以导出它们支持的文件扩展名列表（MP3、MP4 等）。但是，仅当使用 LegacyMediaScanner 时才会使用该列表。它对默认使用的 ModernMediaScanner 没有影响。</t>
+  </si>
+  <si>
+    <t>为了提高设备安全性，Android 7.0 将整体的 mediaserver 进程分解为多个进程，同时仅向各个进程提供所需的权限和功能。</t>
+  </si>
+  <si>
+    <t>这些变更通过以下方式减少了媒体框架安全漏洞：</t>
+  </si>
+  <si>
+    <t>将 AV 管道组件拆分为应用专用的沙盒进程。</t>
+  </si>
+  <si>
+    <t>启用可更新的媒体组件（提取器、编解码器等）。</t>
+  </si>
+  <si>
+    <t>这些变更还大大降低了大多数媒体相关安全漏洞的严重程度，确保最终用户的设备和数据安全，从而提高了最终用户的安全性。</t>
+  </si>
+  <si>
+    <t>原始设备制造商 (OEM) 和 SoC 供应商需要更新他们的 HAL 和框架变更，使之与新架构兼容。</t>
+  </si>
+  <si>
+    <t>具体来说，由于供应商提供的 Android 代码通常假定所有内容均在同一进程中运行，因此，供应商必须更新其代码以传递对于各进程均有意义的本机句柄 (native_handle)。</t>
+  </si>
+  <si>
+    <t>有关媒体强化相关变更的参考实现，请参阅 frameworks/av 和 frameworks/native。</t>
+  </si>
+  <si>
+    <t>架构变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧版 Android 使用单个整体的 mediaserver 进程，该进程具有众多权限（相机访问权、音频访问权、视频驱动程序访问权、文件访问权、网络访问权等）。</t>
+  </si>
+  <si>
+    <t>Android 7.0 将 mediaserver 进程拆分为几个新进程，这些进程要求的权限要少得多：</t>
+  </si>
+  <si>
+    <t>采用这种新型架构之后，即使某个进程遭到入侵，恶意代码也无法获得之前 mediaserver 所拥有的全部权限。进程受 SElinux 和 seccomp 政策的限制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于供应商依赖项的原因，有些编解码器仍在 mediaserver 中运行，因此会为 mediaserver 授予非必要的权限。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体来说，Widevine Classic 将继续在 Android 7.0 的 mediaserver 中运行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaServer 变更</t>
+  </si>
+  <si>
+    <t>在 Android 7.0 中，mediaserver 进程用于驱动播放和录制，例如在组件与进程之间传递和同步缓冲区。进程通过标准的 Binder 机制进行通信。</t>
+  </si>
+  <si>
+    <t>在标准的本地文件播放会话中，应用将文件描述符 (FD) 传递到 mediaserver（通常通过 MediaPlayer Java API），而 mediaserver 将执行以下操作：</t>
+  </si>
+  <si>
+    <t>将 FD 封装到已传递给提取器进程的 Binder DataSource 对象中，提取器进程利用该对象读取使用 Binder IPC 的文件。（mediaextractor 不获取 FD，而是通过对 mediaserver 执行 Binder 回调来获取数据。）</t>
+  </si>
+  <si>
+    <t>检查文件，针对该文件类型创建适当的提取器（例如 MP3Extractor 或 MPEG4Extractor），然后将提取器的 Binder 接口返回到 mediaserver 进程。</t>
+  </si>
+  <si>
+    <t>对提取器执行 Binder IPC 调用，以确定文件中的数据类型（例如 MP3 或 H.264 数据）。</t>
+  </si>
+  <si>
+    <t>调用 mediacodec 进程来创建所需类型的编解码器；接收这些编解码器的 Binder 接口。</t>
+  </si>
+  <si>
+    <t>对提取器执行重复的 Binder IPC 调用以读取编码的示例，使用 Binder IPC 将编码的数据发送到 mediacodec 进程进行解码，然后接收解码的数据。</t>
+  </si>
+  <si>
+    <t>某些用例不涉及任何编解码器（例如分流播放，这种播放会将编码的数据直接发送到输出设备），或者编解码器可能会直接呈现解码的数据，而不是返回解码数据的缓冲区（视频播放）。</t>
+  </si>
+  <si>
+    <t>MediaCodecService 变更</t>
+  </si>
+  <si>
+    <t>编码器和解码器位于编解码器服务中。由于供应商依赖项的原因，并非所有编解码器都位于编解码器进程中。在 Android 7.0 中：</t>
+  </si>
+  <si>
+    <t>非安全解码器和软件编码器位于编解码器进程中。</t>
+  </si>
+  <si>
+    <t>安全解码器和硬件编码器位于 mediaserver（未变更）中。</t>
+  </si>
+  <si>
+    <t>应用（或 mediaserver）调用编解码器进程来创建所需类型的编解码器，然后调用该编解码器传递编码的数据并检索解码的数据（解码），或者传递解码的数据并检索编码的数据（编码）。</t>
+  </si>
+  <si>
+    <t>传入编解码器以及从中传出的数据已经使用了共享内存，因此该进程未发生改变。</t>
+  </si>
+  <si>
+    <t>MediaDrmServer 变更</t>
+  </si>
+  <si>
+    <t>在播放受 DRM 保护的内容（例如 Google Play 电影中的影片）时，会使用 DRM 服务器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该服务器会采用安全方式对加密的数据进行解密，因此可以访问证书和密钥存储以及其他敏感组件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于供应商依赖关系，DRM 进程尚未应用于所有情况。</t>
+  </si>
+  <si>
+    <t>AudioServer 变更</t>
+  </si>
+  <si>
+    <t>AudioServer 进程负责托管音频相关组件，例如音频输入和输出、确定音频转接的 policymanager 服务，以及 FM 电台服务。</t>
+  </si>
+  <si>
+    <t>CameraServer 变更</t>
+  </si>
+  <si>
+    <t>CameraServer 负责控制相机，并且在录制视频时用于从相机获取视频帧，然后将其传递给 mediaserver 进行进一步处理。</t>
+  </si>
+  <si>
+    <t>ExtractorService 变更</t>
+  </si>
+  <si>
+    <t>提取器服务负责托管提取器，即可解析媒体框架支持的各种文件格式的组件。提取器服务是所有服务中权限最少的，它无法读取 FD，因此通过调用 Binder 接口（由各个播放会话的 mediaserver for 向其提供）来访问文件。</t>
+  </si>
+  <si>
+    <t>应用（或 mediaserver）调用提取器进程来获取 IMediaExtractor，调用该 IMediaExtractor 来获取文件中包含的曲目的 IMediaSources，然后调用 IMediaSources 来读取其中的数据。</t>
+  </si>
+  <si>
+    <t>为了在进程之间传输数据，应用（或 mediaserver）将 reply-Parcel 中的数据添加为 Binder 事务的一部分或使用共享内存：</t>
+  </si>
+  <si>
+    <t>使用共享内存需要进行额外的 Binder 调用来释放共享内存，但这样可以加快速度并降低大型缓冲区的功耗。</t>
+  </si>
+  <si>
+    <t>使用 in-Parcel 需要执行额外的复制操作，但对于小于 64KB 的缓冲区来说，这样可以加快速度并降低功耗</t>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了支持将 MediaDrm 和 MediaCrypto 组件移动到新的 mediadrmserver 进程，供应商必须更改安全缓冲区的分配方法，以允许在进程之间共享缓冲区。</t>
+  </si>
+  <si>
+    <t>在旧版 Android 中，安全缓冲区由 OMX::allocateBuffer 在 mediaserver 中分配，并在同一进程的解密过程中使用，如下图所示：</t>
+  </si>
+  <si>
+    <t>Android 6.0 及更低版本中的 mediaserver 中的缓冲区分配</t>
+  </si>
+  <si>
+    <t>Android 7.0 及更高版本中的 mediaserver 中的缓冲区分配。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 Android 7.0 中，缓冲区分配进程已变更为一种新机制，可在提供灵活性的同时最大限度地减少对现有实现的影响。</t>
+  </si>
+  <si>
+    <t>通过使用新的 mediadrmserver 进程中的 MediaDrm 和 MediaCrypto 堆栈</t>
+  </si>
+  <si>
+    <t>缓冲区将以不同的方法进行分配，而供应商必须更新安全缓冲区句柄，以便当 MediaCodec 在 MediaCrypto 上调用解密操作时可以进行跨 binder 传输。</t>
+  </si>
+  <si>
+    <t>使用本机句柄</t>
+  </si>
+  <si>
+    <t>OMX::allocateBuffer 必须返回一个指向 native_handle 结构的指针，其中包含文件描述符 (FD) 和其他整数数据。</t>
+  </si>
+  <si>
+    <t>native_handle 具有使用 FD 的所有优势，包括对序列化/反序列化的现有 binder 支持，可为当前不使用 FD 的供应商提供更多灵活性。</t>
+  </si>
+  <si>
+    <t>使用 native_handle_create() 分配本机句柄。</t>
+  </si>
+  <si>
+    <t>框架代码拥有已分配的 native_handle 结构的所有权，并负责在最初分配 native_handle 的进程以及对其进行反序列化的进程中释放资源。</t>
+  </si>
+  <si>
+    <t>该框架依次使用 native_handle_close() 和 native_handle_delete() 释放本机句柄</t>
+  </si>
+  <si>
+    <t>然后使用 Parcel::writeNativeHandle()/readNativeHandle() 对 native_handle 进行序列化/反序列化。</t>
+  </si>
+  <si>
+    <t>使用 FD 表示安全缓冲区的 SoC 供应商可以使用其 FD 来填充 native_handle 中的 FD。</t>
+  </si>
+  <si>
+    <t>不使用 FD 的供应商可以使用 native_buffer 中的其他字段来表示安全缓冲区。</t>
+  </si>
+  <si>
+    <t>设置解密位置</t>
+  </si>
+  <si>
+    <t>供应商必须更新在 native_handle 上运行的 OEMCrypto 解密方法，以执行任何必要的供应商特定操作</t>
+  </si>
+  <si>
+    <t>以使 native_handle 在新的进程空间中可用（变更通常包括对 OEMCrypto 库的更新）。</t>
+  </si>
+  <si>
+    <t>allocateBuffer 是一种标准 OMX 操作</t>
+  </si>
+  <si>
+    <t>Android 7.0 中包含用于查询此项支持的全新 OMX 扩展程序 (OMX.google.android.index.allocateNativeHandle)</t>
+  </si>
+  <si>
+    <t>以及通知 OMX 实现应当使用本机句柄的 OMX_SetParameter 调用。</t>
+  </si>
+  <si>
+    <t>https://source.android.google.cn/devices/media</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本文档旨在帮助系统芯片供应商 (SoC) 正确实现对 Android 媒体资源管理器所需的优先级、操作速率和钩子的支持。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMX_ErrorInsufficientResources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果失败的原因是资源不足，则编解码器组件应针对 GetHandle、Init、UseBuffer、AllocateBuffer 或状态转换返回 OMX_ErrorInsufficientResources。</t>
+  </si>
+  <si>
+    <t>媒体资源管理器会将该错误代码用作指示符（意味着可能会从其他优先级较低的进程抢占媒体资源）。</t>
+  </si>
+  <si>
+    <t>Android 兼容性测试套件 (CTS) 中的相关测试会重复分配、配置和启动每一个编解码器，直到出现 catching OMX_ErrorInsufficientResources（通过）结果或任何其他错误（失败）。</t>
+  </si>
+  <si>
+    <t>OMX_IndexConfigPriority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过此项配置，应用可以说明其所需的编解码器优先级。</t>
+  </si>
+  <si>
+    <t>关联值为整数。值越高，优先级越低。 目前仅支持两种级别：</t>
+  </si>
+  <si>
+    <t>0：实时优先级 - 指的是编解码器应该实时支持指定的性能配置（如帧速率）。该优先级只能用于媒体播放、捕获，另外还可能用于实时通信场景（如果“可提供的最佳性能”选项不适用）。</t>
+  </si>
+  <si>
+    <t>1：非实时优先级（可提供的最佳性能）。这是默认值。</t>
+  </si>
+  <si>
+    <t>建议供应商将此用作编解码器配置和资源规划提示，以便了解应用的实时要求。</t>
+  </si>
+  <si>
+    <t>请勿假设实时优先级（除非优先级配置为 0）。</t>
+  </si>
+  <si>
+    <t>OMX_IndexConfigOperatingRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过此项配置，应用可以说明编解码器在进行操作时所需的视频操作帧速率或音频采样率。</t>
+  </si>
+  <si>
+    <t>该配置的其中一种使用情况为高速/慢动作视频捕获；在这种情况下，视频编码器格式包含目标播放速率（如 30 帧/秒），但组件必须能够处理较高的操作捕获速率（如 240 帧/秒）。</t>
+  </si>
+  <si>
+    <t>此速率应该用于资源规划和设置操作点。</t>
+  </si>
+  <si>
+    <t>本文档旨在帮助 OEM 正确实现对 Android 媒体资源管理器和相关 API 的支持。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大并发编解码器实例数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodecCapabilities.getMaxSupportedInstances 接口返回支持的并发编解码器实例的最大数量。</t>
+  </si>
+  <si>
+    <t>CTS 测试 testGetMaxSupportedInstances(android.media.cts.MediaCodecCapabilitiesTest) 用于强制在 /etc/media_codecs.xml 中设置合适的最大值。</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>&lt;MediaCodecs&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Encoders&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;MediaCodec name="OMX.&lt;vendor&gt;.video.encoder.avc" type="video/avc" &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;Limit name="concurrent-instances" max="13" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/MediaCodec&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/Encoders&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/MediaCodecs&gt;</t>
+  </si>
+  <si>
+    <t>OEM 可以使用此测试来生成可通过测试的并发限制。具体操作步骤如下：</t>
+  </si>
+  <si>
+    <t>首先使用 cts-tradefed 运行测试。</t>
+  </si>
+  <si>
+    <t>评估生成的失败消息。示例如下：</t>
+  </si>
+  <si>
+    <t>There was 1 failure:</t>
+  </si>
+  <si>
+    <t>1) testGetMaxSupportedInstances(android.media.cts.MediaCodecCapabilitiesTest)</t>
+  </si>
+  <si>
+    <t>junit.framework.AssertionFailedError: In order to pass the test, please publish</t>
+  </si>
+  <si>
+    <t>following codecs' concurrent instances limit in /etc/media_codecs.xml:</t>
+  </si>
+  <si>
+    <t>&lt;MediaCodec name="OMX.&lt;vendor&gt;.video.encoder.mpeg4" type="video/mp4v-es" &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Limit name="concurrent-instances" max="13" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/MediaCodec&gt;</t>
+  </si>
+  <si>
+    <t>&lt;MediaCodec name="OMX.&lt;vendor&gt;.video.encoder.h263" type="video/3gpp" &gt;</t>
+  </si>
+  <si>
+    <t>&lt;MediaCodec name="OMX.&lt;vendor&gt;.video.encoder.avc" type="video/avc" &gt;</t>
+  </si>
+  <si>
+    <t>&lt;MediaCodec name="OMX.&lt;vendor&gt;.video.encoder.vp8" type="video/x-vnd.on2.vp8" &gt;</t>
+  </si>
+  <si>
+    <t>&lt;MediaCodec name="OMX.&lt;vendor&gt;.video.decoder.avc" type="video/avc" &gt;</t>
+  </si>
+  <si>
+    <t>&lt;MediaCodec name="OMX.&lt;vendor&gt;.video.decoder.avc.secure" type="video/avc" &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Limit name="concurrent-instances" max="4" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;MediaCodec name="OMX.&lt;vendor&gt;.video.decoder.mpeg4" type="video/mp4v-es" &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Limit name="concurrent-instances" max="12" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;MediaCodec name="OMX.&lt;vendor&gt;.video.decoder.h263" type="video/3gpp" &gt;</t>
+  </si>
+  <si>
+    <t>&lt;MediaCodec name="OMX.&lt;vendor&gt;.video.decoder.vp8" type="video/x-vnd.on2.vp8" &gt;</t>
+  </si>
+  <si>
+    <t>将测试失败消息中建议的 concurrent-instances 行添加到 /etc/media_codecs.xml 文件。</t>
+  </si>
+  <si>
+    <t>重新运行测试以验证测试是否成功。</t>
+  </si>
+  <si>
+    <t>视频编解码器可实现的帧速率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VideoCapabilities.getAchievableFrameRatesFor 接口针对某个视频大小返回可实现的视频帧率的范围。</t>
+  </si>
+  <si>
+    <t>此信息必须由 OEM 通过位于 /etc/media_codecs_performance.xml 的 XML 文件为每个设备提供。</t>
+  </si>
+  <si>
+    <t>这些设置通过 com.android.cts.videoperf.VideoEncoderDecoderTest 和 android.media.cts.VideoDecoderPerfTest CTS 测试进行测试。</t>
+  </si>
+  <si>
+    <t>OEM 可以使用 CTS 测试来生成可通过测试的 XML 文件。具体操作步骤如下：</t>
+  </si>
+  <si>
+    <t>首先使用 cts-tradefed 运行测试。鉴于 Android 性能的波动性，建议多次运行测试以获得更准确的最小值和最大值。</t>
+  </si>
+  <si>
+    <t>使用提供的 get_achievable_rates.py 脚本生成 XML 文件。</t>
+  </si>
+  <si>
+    <t>如下所示：</t>
+  </si>
+  <si>
+    <t>将 XML 文件放置在以下位置：/etc/media_codecs_performance.xml为了完成此过程，您通常需要将 XML 文件放置在设备项目（device/&lt;供应商&gt;/&lt;产品&gt;）中，并将 PRODUCT_COPY_FILES 行添加到 device.mk 中，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./out/target/product/generic_x86_64/vendor/etc/media_codecs.xml</t>
+  </si>
+  <si>
+    <t>./device/google/wahoo/media_codecs.xml</t>
+  </si>
+  <si>
+    <t>./device/google/cuttlefish_common/guest/hals/camera/media_codecs.xml</t>
+  </si>
+  <si>
+    <t>./device/google/cuttlefish/shared/config/media_codecs.xml</t>
+  </si>
+  <si>
+    <t>./device/google/crosshatch/media_codecs.xml</t>
+  </si>
+  <si>
+    <t>./device/google/marlin/media_codecs.xml</t>
+  </si>
+  <si>
+    <t>./device/linaro/hikey/etc/media_codecs.xml</t>
+  </si>
+  <si>
+    <t>./device/generic/goldfish/camera/media_codecs.xml</t>
+  </si>
+  <si>
+    <t>aosp工程中查找文件结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   device/moto/shamu/media_codecs.xml:system/etc/media_codecs.xml \</t>
+  </si>
+  <si>
+    <t>重新运行性能测试以验证测试是否成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全编解码器和非安全编解码器共存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supports-secure-with-non-secure-codec - 如果安全编解码器实例和非安全编解码器实例不能同时共存，则应在 media_codecs.xml 文件中作为全局设置指明。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Settings&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;Setting name="supports-secure-with-non-secure-codec" value="false" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/Settings&gt;</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>supports-multiple-secure-codecs - 如果不支持多个安全编解码器实例共存，则应在 media_codecs.xml 文件中作为全局设置指明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;Setting name="supports-multiple-secure-codecs" value="false" /&gt;</t>
+  </si>
+  <si>
+    <t>请注意，默认情况下，两个设置都为 true，这意味着如果支持这些设置，则无需将设置行添加到 media_codecs.xml。</t>
+  </si>
+  <si>
+    <t>如果这两项设置均未正确设置，ResourceManagerTest CTS 测试可能会失败。</t>
+  </si>
+  <si>
+    <t>框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android 平台提供了一个可扩展的 DRM 框架，支持应用根据与受版权保护的内容关联的许可限制条件来管理这些内容。</t>
+  </si>
+  <si>
+    <t>DRM 框架支持多种 DRM 方案；设备具体支持哪些 DRM 方案由设备制造商决定。DRM 框架为应用开发者提供了一个统一接口，并隐藏了 DRM 操作的复杂性。</t>
+  </si>
+  <si>
+    <t>DRM 框架为受保护和不受保护的内容提供了一致的操作模式。DRM 方案可以定义复杂的许可元数据使用模型。</t>
+  </si>
+  <si>
+    <t>DRM 框架提供了 DRM 内容与许可之间的关联，并处理权限管理。</t>
+  </si>
+  <si>
+    <t>这样可以将媒体播放器从受 DRM 保护或不受保护的内容中提取出来。</t>
+  </si>
+  <si>
+    <t>https://developer.android.google.cn/reference/android/media/MediaDrm.html</t>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否提供丰富的数字内容，对移动设备用户来说非常重要。</t>
+  </si>
+  <si>
+    <t>为保证内容的广泛覆盖面，Android 开发者和数字内容发布者需要在整个 Android 生态系统中实现受支持的一致的 DRM。</t>
+  </si>
+  <si>
+    <t>为了让这类数字内容适用于 Android 设备，并确保至少有一个一致的 DRM 可用于所有设备，Google 会在兼容的 Android 设备上提供无需支付许可费用的 DRM。</t>
+  </si>
+  <si>
+    <t>DRM 插件会与 Android DRM 框架集成在一起，并可使用受硬件支持的保护功能来确保付费内容和用户凭据的安全。</t>
+  </si>
+  <si>
+    <t>DRM 插件提供的内容保护功能取决于底层硬件平台的安全和内容保护功能。</t>
+  </si>
+  <si>
+    <t>设备的硬件功能应包括硬件安全启动，可建立加密密钥的安全和保护功能的信任链。</t>
+  </si>
+  <si>
+    <t>设备的内容保护功能应包括设备内加密帧的保护和通过可信输出保护机制实现的内容保护。</t>
+  </si>
+  <si>
+    <t>并非所有硬件平台都支持上述所有的安全和内容保护功能。安全功能绝不会在堆栈的单个位置实现，而是依赖于硬件、软件和服务的集成。</t>
+  </si>
+  <si>
+    <t>将硬件安全功能、可信启动机制以及用于处理安全功能的隔离安全操作系统组合使用是保障安全设备的关键。</t>
+  </si>
+  <si>
+    <t>本文档概要介绍了 Android 数字版权管理 (DRM) 框架，并介绍了 DRM 插件必须实现的接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本文档不提供可由 DRM 方案定义的稳健性规则或合规性规则的相关说明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRM 框架与实现无关，可在方案特定的 DRM 插件中提取特定 DRM 方案实现的详情。</t>
+  </si>
+  <si>
+    <t>DRM 框架包括可执行以下操作的简单 API：处理复杂的 DRM 操作，获取许可，配置设备，将 DRM 内容与其许可相关联，以及最终解密 DRM 内容。</t>
+  </si>
+  <si>
+    <t>Android DRM 是在以下两个架构层中实现的：</t>
+  </si>
+  <si>
+    <t>DRM framework API：通过 Android 应用框架提供给应用。</t>
+  </si>
+  <si>
+    <t>本机代码 DRM 框架：为 DRM 插件（代理）提供接口，以便处理各种 DRM 方案的版权管理和解密操作。</t>
+  </si>
+  <si>
+    <t>https://developer.android.google.cn/reference/android/media/MediaCrypto.html</t>
+  </si>
+  <si>
+    <t>DRM 插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在系统启动时，DRM 框架会扫描 HAL 实例/服务（如 .rc 文件中所述），并通过 HIDL 注册表发现插件。</t>
+  </si>
+  <si>
+    <t>媒体 DRM 服务器 (mediadrmserver) 创建 CryptoHal 和 DrmHal 对象。 然后，CryptoHal 和 DrmHal 使用供应商专用实现来调用发现的插件。</t>
+  </si>
+  <si>
+    <t>插件应实现绑定式 HAL。绑定式 HAL 使用 HAL 接口定义语言 (HIDL)，HIDL 支持在不重新构建 HAL 的情况下替换框架。</t>
+  </si>
+  <si>
+    <t>插件由供应商或 SOC 制造商构建，放置在设备的 /vendor 分区中。所有在上市时即搭载了 Android 8.0 或更高版本的设备都必须支持使用 HIDL 语言编写的绑定式 HAL。</t>
+  </si>
+  <si>
+    <t>https://source.android.google.cn/devices/architecture/hidl</t>
+  </si>
+  <si>
+    <t>要通过插件实现新的 DRM 框架 API，请执行以下操作：</t>
+  </si>
+  <si>
+    <t>将插件服务添加到设备的构建文件中。</t>
+  </si>
+  <si>
+    <t>更新设备清单。</t>
+  </si>
+  <si>
+    <t>添加 SELinux 权限。</t>
+  </si>
+  <si>
+    <t>在 /vendor 下创建 .rc 文件。</t>
+  </si>
+  <si>
+    <t>实现插件。</t>
+  </si>
+  <si>
+    <t>新的 API 在 iDrmPlugin.hal 和 iCryptoPlugin.hal 中定义。</t>
+  </si>
+  <si>
+    <t>PLATFORM_ROOT/hardware/interfaces/drm/VERSION/</t>
+  </si>
+  <si>
+    <t>将插件服务添加到设备的构建文件中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如，要添加接口 1.2 支持，VENDOR DEVICE/device.mk 文件必须包含 android.hardware.drm@1.2-service.* 软件包：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRODUCT_PACKAGES += \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    android.hardware.drm@1.0-impl \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    android.hardware.drm@1.0-service \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    android.hardware.drm@1.2-service.clearkey \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    android.hardware.drm@1.2-service.widevine</t>
+  </si>
+  <si>
+    <t>更新设备清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备的 vendor manifest.xml 文件必须包含以下条目：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;hal format="hidl"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;name&gt;android.hardware.drm&lt;/name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;transport&gt;hwbinder&lt;/transport&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;version&gt;1.0&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;interface&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;name&gt;ICryptoFactory&lt;/name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;instance&gt;default&lt;/instance&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;/interface&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;name&gt;IDrmFactory&lt;/name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;fqname&gt;@1.2::ICryptoFactory/clearkey&lt;/fqname&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;fqname&gt;@1.2::IDrmFactory/clearkey&lt;/fqname&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;fqname&gt;@1.2::ICryptoFactory/widevine&lt;/fqname&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;fqname&gt;@1.2::IDrmFactory/widevine&lt;/fqname&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/hal&gt;</t>
+  </si>
+  <si>
+    <t>添加 SELinux 权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加到 VENDOR DEVICE/sepolicy/vendor/file.te</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type mediadrm_vendor_data_file, file_type, data_file_type;</t>
+  </si>
+  <si>
+    <t>添加到 VENDOR DEVICE/sepolicy/vendor/file_contexts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vendor/bin/hw/android\.hardware\.drm@1\.2-service\.clearkey</t>
+  </si>
+  <si>
+    <t>      u:object_r:hal_drm_clearkey_exec:s0</t>
+  </si>
+  <si>
+    <t>    /data/vendor/mediadrm(/.*)? u:object_r:mediadrm_vendor_data_file:s0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>添加到 device/sepolicy/vendor/hal_drm_clearkey.te</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allow hal_drm_clearkey mediadrm_vendor_data_file:dir create_dir_perms;</t>
+  </si>
+  <si>
+    <t>    allow hal_drm_clearkey mediadrm_vendor_data_file:file create_file_perms;</t>
+  </si>
+  <si>
+    <t>在 /vendor 下创建 .rc 文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.rc 文件指定服务启动时要采取的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://android.googlesource.com/platform/system/core/+/master/init/README.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在插件服务的 service.cpp 中实现 main() 入口点。</t>
+  </si>
+  <si>
+    <t>实现 CryptoFactory 和 DrmFactory。</t>
+  </si>
+  <si>
+    <t>在插件中实现新的 API。</t>
+  </si>
+  <si>
+    <t>DRM 插件详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRM 插件供应商实现了 DrmFactory、CryptoFactory 和 DRM 插件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrmFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return&lt;bool&gt; isCryptoSchemeSupported(const hidl_array&lt;uint8_t, 16&gt;uuid);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrmHal 类会搜索已注册的 DRM 插件服务，并通过 DrmFactory 类构建支持给定加密方案的相应插件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定插件工厂能否构建支持给定加密方案（由 UUID 指定）的 DRM 插件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return&lt;bool&gt; isContentTypeSupported(const hidl_string &amp;mimeType);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定插件工厂能否构建支持给定媒体容器格式（由 mimeType 指定）的 DRM 插件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return&lt;void&gt; createPlugin(const hidl_array&lt;uint8_t, 16&gt;uuid,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        const hidl_string&amp; appPackageName, createPlugin_cb _hidl_cb);</t>
+  </si>
+  <si>
+    <t>为 UUID 指定的加密方案构建 DRM 插件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CryptoFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CryptoHal 类会搜索已注册的 DRM 插件服务，并通过 CryptoFactory 类构建支持给定加密方案的相应插件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定加密工厂能否构建支持给定加密方案（由 UUID 指定）的加密插件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return&lt;void&gt; createPlugin(const hidl_array&lt;uint8_t, 16&gt;uuid,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        const hidl_vec&lt;uint8_t&gt;initData, createPlugin_cb _hidl_cb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定插件工厂能否构建支持给定加密方案（由 UUID 指定）的加密插件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 在 hardware/interfaces/drm/VERSION /IDrmPlugin.hal 中定义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建完成后，可以在 out/Soong 中找到相应的 IDrmPlugin.h 文件。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +1281,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -510,12 +1344,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,9 +1387,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -633,6 +1484,206 @@
         <a:xfrm>
           <a:off x="676276" y="7924801"/>
           <a:ext cx="3295650" cy="3784534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>69859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="ape_media_split.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="3476624"/>
+          <a:ext cx="7200900" cy="10137785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="ape_media_buffer_alloc_pren.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="16468725"/>
+          <a:ext cx="5486400" cy="3600450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>40437</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="ape_media_buffer_alloc_n.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6800850" y="16459200"/>
+          <a:ext cx="4841037" cy="3590925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>188019</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="ape_fwk_drm.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600076" y="2743200"/>
+          <a:ext cx="9789218" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>29559</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="ape_fwk_drm_2.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="13544550"/>
+          <a:ext cx="4830159" cy="3448050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,9 +1982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:AZ71"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
@@ -1645,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:BO154"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -3822,27 +4871,871 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:AZ143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM25" sqref="AM25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:52">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52">
+      <c r="D20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="AQ24" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52">
+      <c r="AQ25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52">
+      <c r="AQ26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52">
+      <c r="AQ28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR28" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52">
+      <c r="AQ29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR29" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52">
+      <c r="AQ30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="AQ31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR31" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52">
+      <c r="AQ32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR32" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="43:43">
+      <c r="AQ34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="43:43">
+      <c r="AQ36" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="43:43">
+      <c r="AQ37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="43:44">
+      <c r="AQ52" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="43:44">
+      <c r="AQ53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="43:44">
+      <c r="AQ58" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="43:44">
+      <c r="AQ59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="43:44">
+      <c r="AQ60" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="43:44">
+      <c r="AQ61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="43:44">
+      <c r="AQ62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR62" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="43:44">
+      <c r="AQ63" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR63" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="43:44">
+      <c r="AQ66" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="43:44">
+      <c r="AQ67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="43:44">
+      <c r="AQ68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="43:44">
+      <c r="AQ69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="43:44">
+      <c r="AQ72" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="43:44">
+      <c r="AQ73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="43:44">
+      <c r="AQ75" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR75" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="43:44">
+      <c r="AQ76" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR76" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="43:44">
+      <c r="AQ78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="43:44">
+      <c r="AQ79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:52">
+      <c r="D83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:52">
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="11"/>
+      <c r="AA84" s="11"/>
+      <c r="AB84" s="11"/>
+      <c r="AC84" s="11"/>
+      <c r="AD84" s="11"/>
+      <c r="AE84" s="11"/>
+      <c r="AF84" s="11"/>
+      <c r="AG84" s="11"/>
+      <c r="AH84" s="11"/>
+      <c r="AI84" s="11"/>
+      <c r="AJ84" s="11"/>
+      <c r="AK84" s="11"/>
+      <c r="AL84" s="11"/>
+      <c r="AM84" s="11"/>
+      <c r="AN84" s="11"/>
+      <c r="AO84" s="11"/>
+      <c r="AP84" s="11"/>
+      <c r="AQ84" s="11"/>
+      <c r="AR84" s="11"/>
+    </row>
+    <row r="85" spans="1:52">
+      <c r="D85" s="11"/>
+      <c r="E85" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="11"/>
+      <c r="AA85" s="11"/>
+      <c r="AB85" s="11"/>
+      <c r="AC85" s="11"/>
+      <c r="AD85" s="11"/>
+      <c r="AE85" s="11"/>
+      <c r="AF85" s="11"/>
+      <c r="AG85" s="11"/>
+      <c r="AH85" s="11"/>
+      <c r="AI85" s="11"/>
+      <c r="AJ85" s="11"/>
+      <c r="AK85" s="11"/>
+      <c r="AL85" s="11"/>
+      <c r="AM85" s="11"/>
+      <c r="AN85" s="11"/>
+      <c r="AO85" s="11"/>
+      <c r="AP85" s="11"/>
+      <c r="AQ85" s="11"/>
+      <c r="AR85" s="11"/>
+    </row>
+    <row r="86" spans="1:52">
+      <c r="D86" s="11"/>
+      <c r="E86" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
+      <c r="AA86" s="11"/>
+      <c r="AB86" s="11"/>
+      <c r="AC86" s="11"/>
+      <c r="AD86" s="11"/>
+      <c r="AE86" s="11"/>
+      <c r="AF86" s="11"/>
+      <c r="AG86" s="11"/>
+      <c r="AH86" s="11"/>
+      <c r="AI86" s="11"/>
+      <c r="AJ86" s="11"/>
+      <c r="AK86" s="11"/>
+      <c r="AL86" s="11"/>
+      <c r="AM86" s="11"/>
+      <c r="AN86" s="11"/>
+      <c r="AO86" s="11"/>
+      <c r="AP86" s="11"/>
+      <c r="AQ86" s="11"/>
+      <c r="AR86" s="11"/>
+    </row>
+    <row r="87" spans="1:52">
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
+      <c r="AA87" s="11"/>
+      <c r="AB87" s="11"/>
+      <c r="AC87" s="11"/>
+      <c r="AD87" s="11"/>
+      <c r="AE87" s="11"/>
+      <c r="AF87" s="11"/>
+      <c r="AG87" s="11"/>
+      <c r="AH87" s="11"/>
+      <c r="AI87" s="11"/>
+      <c r="AJ87" s="11"/>
+      <c r="AK87" s="11"/>
+      <c r="AL87" s="11"/>
+      <c r="AM87" s="11"/>
+      <c r="AN87" s="11"/>
+      <c r="AO87" s="11"/>
+      <c r="AP87" s="11"/>
+      <c r="AQ87" s="11"/>
+      <c r="AR87" s="11"/>
+    </row>
+    <row r="91" spans="1:52">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+      <c r="AV91" s="1"/>
+      <c r="AW91" s="1"/>
+      <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
+    </row>
+    <row r="93" spans="1:52">
+      <c r="D93" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:52">
+      <c r="D94" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:52">
+      <c r="D96" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI96" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="4:35">
+      <c r="AI119" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="4:35">
+      <c r="AI120" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="4:35">
+      <c r="AI121" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="4:35">
+      <c r="D124" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="4:35">
+      <c r="D125" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="4:35">
+      <c r="D126" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="128" spans="4:35">
+      <c r="D128" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="D137" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4">
+      <c r="D139" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:AZ25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AZ3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="1:52">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="D5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="D7" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="D8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="D9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="D12" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="D13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="D15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3850,12 +5743,3439 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:BZ112"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AZ3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:78">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+    </row>
+    <row r="5" spans="1:78">
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:78">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+    </row>
+    <row r="10" spans="1:78">
+      <c r="D10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:78">
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:78">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+    </row>
+    <row r="13" spans="1:78">
+      <c r="D13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BL13" s="4"/>
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4"/>
+      <c r="BO13" s="4"/>
+      <c r="BP13" s="4"/>
+      <c r="BQ13" s="4"/>
+      <c r="BR13" s="4"/>
+      <c r="BS13" s="4"/>
+      <c r="BT13" s="4"/>
+      <c r="BU13" s="4"/>
+      <c r="BV13" s="4"/>
+      <c r="BW13" s="4"/>
+      <c r="BX13" s="4"/>
+      <c r="BY13" s="4"/>
+      <c r="BZ13" s="4"/>
+    </row>
+    <row r="14" spans="1:78">
+      <c r="D14" s="4"/>
+      <c r="E14" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4"/>
+      <c r="BP14" s="4"/>
+      <c r="BQ14" s="4"/>
+      <c r="BR14" s="4"/>
+      <c r="BS14" s="4"/>
+      <c r="BT14" s="4"/>
+      <c r="BU14" s="4"/>
+      <c r="BV14" s="4"/>
+      <c r="BW14" s="4"/>
+      <c r="BX14" s="4"/>
+      <c r="BY14" s="4"/>
+      <c r="BZ14" s="4"/>
+    </row>
+    <row r="15" spans="1:78">
+      <c r="D15" s="4"/>
+      <c r="E15" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
+      <c r="BL15" s="6"/>
+      <c r="BM15" s="6"/>
+      <c r="BN15" s="6"/>
+      <c r="BO15" s="6"/>
+      <c r="BP15" s="6"/>
+      <c r="BQ15" s="6"/>
+      <c r="BR15" s="6"/>
+      <c r="BS15" s="6"/>
+      <c r="BT15" s="6"/>
+      <c r="BU15" s="6"/>
+      <c r="BV15" s="4"/>
+      <c r="BW15" s="4"/>
+      <c r="BX15" s="4"/>
+      <c r="BY15" s="4"/>
+      <c r="BZ15" s="4"/>
+    </row>
+    <row r="16" spans="1:78">
+      <c r="D16" s="4"/>
+      <c r="E16" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW16" s="6"/>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
+      <c r="BA16" s="6"/>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="6"/>
+      <c r="BD16" s="6"/>
+      <c r="BE16" s="6"/>
+      <c r="BF16" s="6"/>
+      <c r="BG16" s="6"/>
+      <c r="BH16" s="6"/>
+      <c r="BI16" s="6"/>
+      <c r="BJ16" s="6"/>
+      <c r="BK16" s="6"/>
+      <c r="BL16" s="6"/>
+      <c r="BM16" s="6"/>
+      <c r="BN16" s="6"/>
+      <c r="BO16" s="6"/>
+      <c r="BP16" s="6"/>
+      <c r="BQ16" s="6"/>
+      <c r="BR16" s="6"/>
+      <c r="BS16" s="6"/>
+      <c r="BT16" s="6"/>
+      <c r="BU16" s="6"/>
+      <c r="BV16" s="4"/>
+      <c r="BW16" s="4"/>
+      <c r="BX16" s="4"/>
+      <c r="BY16" s="4"/>
+      <c r="BZ16" s="4"/>
+    </row>
+    <row r="17" spans="4:78">
+      <c r="D17" s="4"/>
+      <c r="E17" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="6"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="6"/>
+      <c r="BL17" s="6"/>
+      <c r="BM17" s="6"/>
+      <c r="BN17" s="6"/>
+      <c r="BO17" s="6"/>
+      <c r="BP17" s="6"/>
+      <c r="BQ17" s="6"/>
+      <c r="BR17" s="6"/>
+      <c r="BS17" s="6"/>
+      <c r="BT17" s="6"/>
+      <c r="BU17" s="6"/>
+      <c r="BV17" s="4"/>
+      <c r="BW17" s="4"/>
+      <c r="BX17" s="4"/>
+      <c r="BY17" s="4"/>
+      <c r="BZ17" s="4"/>
+    </row>
+    <row r="18" spans="4:78">
+      <c r="D18" s="4"/>
+      <c r="E18" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="6"/>
+      <c r="BM18" s="6"/>
+      <c r="BN18" s="6"/>
+      <c r="BO18" s="6"/>
+      <c r="BP18" s="6"/>
+      <c r="BQ18" s="6"/>
+      <c r="BR18" s="6"/>
+      <c r="BS18" s="6"/>
+      <c r="BT18" s="6"/>
+      <c r="BU18" s="6"/>
+      <c r="BV18" s="4"/>
+      <c r="BW18" s="4"/>
+      <c r="BX18" s="4"/>
+      <c r="BY18" s="4"/>
+      <c r="BZ18" s="4"/>
+    </row>
+    <row r="19" spans="4:78">
+      <c r="D19" s="4"/>
+      <c r="E19" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="6"/>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="6"/>
+      <c r="BH19" s="6"/>
+      <c r="BI19" s="6"/>
+      <c r="BJ19" s="6"/>
+      <c r="BK19" s="6"/>
+      <c r="BL19" s="6"/>
+      <c r="BM19" s="6"/>
+      <c r="BN19" s="6"/>
+      <c r="BO19" s="6"/>
+      <c r="BP19" s="6"/>
+      <c r="BQ19" s="6"/>
+      <c r="BR19" s="6"/>
+      <c r="BS19" s="6"/>
+      <c r="BT19" s="6"/>
+      <c r="BU19" s="6"/>
+      <c r="BV19" s="4"/>
+      <c r="BW19" s="4"/>
+      <c r="BX19" s="4"/>
+      <c r="BY19" s="4"/>
+      <c r="BZ19" s="4"/>
+    </row>
+    <row r="20" spans="4:78">
+      <c r="D20" s="4"/>
+      <c r="E20" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW20" s="6"/>
+      <c r="AX20" s="6"/>
+      <c r="AY20" s="6"/>
+      <c r="AZ20" s="6"/>
+      <c r="BA20" s="6"/>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="6"/>
+      <c r="BD20" s="6"/>
+      <c r="BE20" s="6"/>
+      <c r="BF20" s="6"/>
+      <c r="BG20" s="6"/>
+      <c r="BH20" s="6"/>
+      <c r="BI20" s="6"/>
+      <c r="BJ20" s="6"/>
+      <c r="BK20" s="6"/>
+      <c r="BL20" s="6"/>
+      <c r="BM20" s="6"/>
+      <c r="BN20" s="6"/>
+      <c r="BO20" s="6"/>
+      <c r="BP20" s="6"/>
+      <c r="BQ20" s="6"/>
+      <c r="BR20" s="6"/>
+      <c r="BS20" s="6"/>
+      <c r="BT20" s="6"/>
+      <c r="BU20" s="6"/>
+      <c r="BV20" s="4"/>
+      <c r="BW20" s="4"/>
+      <c r="BX20" s="4"/>
+      <c r="BY20" s="4"/>
+      <c r="BZ20" s="4"/>
+    </row>
+    <row r="21" spans="4:78">
+      <c r="D21" s="4"/>
+      <c r="E21" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="6"/>
+      <c r="AY21" s="6"/>
+      <c r="AZ21" s="6"/>
+      <c r="BA21" s="6"/>
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="6"/>
+      <c r="BD21" s="6"/>
+      <c r="BE21" s="6"/>
+      <c r="BF21" s="6"/>
+      <c r="BG21" s="6"/>
+      <c r="BH21" s="6"/>
+      <c r="BI21" s="6"/>
+      <c r="BJ21" s="6"/>
+      <c r="BK21" s="6"/>
+      <c r="BL21" s="6"/>
+      <c r="BM21" s="6"/>
+      <c r="BN21" s="6"/>
+      <c r="BO21" s="6"/>
+      <c r="BP21" s="6"/>
+      <c r="BQ21" s="6"/>
+      <c r="BR21" s="6"/>
+      <c r="BS21" s="6"/>
+      <c r="BT21" s="6"/>
+      <c r="BU21" s="6"/>
+      <c r="BV21" s="4"/>
+      <c r="BW21" s="4"/>
+      <c r="BX21" s="4"/>
+      <c r="BY21" s="4"/>
+      <c r="BZ21" s="4"/>
+    </row>
+    <row r="22" spans="4:78">
+      <c r="D22" s="4"/>
+      <c r="E22" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="6"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="6"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
+      <c r="BI22" s="6"/>
+      <c r="BJ22" s="6"/>
+      <c r="BK22" s="6"/>
+      <c r="BL22" s="6"/>
+      <c r="BM22" s="6"/>
+      <c r="BN22" s="6"/>
+      <c r="BO22" s="6"/>
+      <c r="BP22" s="6"/>
+      <c r="BQ22" s="6"/>
+      <c r="BR22" s="6"/>
+      <c r="BS22" s="6"/>
+      <c r="BT22" s="6"/>
+      <c r="BU22" s="6"/>
+      <c r="BV22" s="4"/>
+      <c r="BW22" s="4"/>
+      <c r="BX22" s="4"/>
+      <c r="BY22" s="4"/>
+      <c r="BZ22" s="4"/>
+    </row>
+    <row r="23" spans="4:78">
+      <c r="D23" s="4"/>
+      <c r="E23" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
+      <c r="BK23" s="4"/>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="4"/>
+      <c r="BO23" s="4"/>
+      <c r="BP23" s="4"/>
+      <c r="BQ23" s="4"/>
+      <c r="BR23" s="4"/>
+      <c r="BS23" s="4"/>
+      <c r="BT23" s="4"/>
+      <c r="BU23" s="4"/>
+      <c r="BV23" s="4"/>
+      <c r="BW23" s="4"/>
+      <c r="BX23" s="4"/>
+      <c r="BY23" s="4"/>
+      <c r="BZ23" s="4"/>
+    </row>
+    <row r="24" spans="4:78">
+      <c r="D24" s="4"/>
+      <c r="E24" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+    </row>
+    <row r="25" spans="4:78">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+    </row>
+    <row r="27" spans="4:78">
+      <c r="D27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="4:78">
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="4:78">
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="4:78">
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="4:78">
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="4:40">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+    </row>
+    <row r="35" spans="4:40">
+      <c r="D35" s="4"/>
+      <c r="E35" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+    </row>
+    <row r="36" spans="4:40">
+      <c r="D36" s="4"/>
+      <c r="E36" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+    </row>
+    <row r="37" spans="4:40">
+      <c r="D37" s="4"/>
+      <c r="E37" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+    </row>
+    <row r="38" spans="4:40">
+      <c r="D38" s="4"/>
+      <c r="E38" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+    </row>
+    <row r="39" spans="4:40">
+      <c r="D39" s="4"/>
+      <c r="E39" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+    </row>
+    <row r="40" spans="4:40">
+      <c r="D40" s="4"/>
+      <c r="E40" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+    </row>
+    <row r="41" spans="4:40">
+      <c r="D41" s="4"/>
+      <c r="E41" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+    </row>
+    <row r="42" spans="4:40">
+      <c r="D42" s="4"/>
+      <c r="E42" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+    </row>
+    <row r="43" spans="4:40">
+      <c r="D43" s="4"/>
+      <c r="E43" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
+    </row>
+    <row r="44" spans="4:40">
+      <c r="D44" s="4"/>
+      <c r="E44" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+    </row>
+    <row r="45" spans="4:40">
+      <c r="D45" s="4"/>
+      <c r="E45" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4"/>
+    </row>
+    <row r="46" spans="4:40">
+      <c r="D46" s="4"/>
+      <c r="E46" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4"/>
+    </row>
+    <row r="47" spans="4:40">
+      <c r="D47" s="4"/>
+      <c r="E47" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="4"/>
+      <c r="AK47" s="4"/>
+      <c r="AL47" s="4"/>
+      <c r="AM47" s="4"/>
+      <c r="AN47" s="4"/>
+    </row>
+    <row r="48" spans="4:40">
+      <c r="D48" s="4"/>
+      <c r="E48" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4"/>
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="4"/>
+    </row>
+    <row r="49" spans="4:40">
+      <c r="D49" s="4"/>
+      <c r="E49" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
+    </row>
+    <row r="50" spans="4:40">
+      <c r="D50" s="4"/>
+      <c r="E50" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4"/>
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="4"/>
+    </row>
+    <row r="51" spans="4:40">
+      <c r="D51" s="4"/>
+      <c r="E51" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+    </row>
+    <row r="52" spans="4:40">
+      <c r="D52" s="4"/>
+      <c r="E52" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+    </row>
+    <row r="53" spans="4:40">
+      <c r="D53" s="4"/>
+      <c r="E53" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="4"/>
+    </row>
+    <row r="54" spans="4:40">
+      <c r="D54" s="4"/>
+      <c r="E54" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="4"/>
+    </row>
+    <row r="55" spans="4:40">
+      <c r="D55" s="4"/>
+      <c r="E55" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="4"/>
+      <c r="AM55" s="4"/>
+      <c r="AN55" s="4"/>
+    </row>
+    <row r="56" spans="4:40">
+      <c r="D56" s="4"/>
+      <c r="E56" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="4"/>
+      <c r="AM56" s="4"/>
+      <c r="AN56" s="4"/>
+    </row>
+    <row r="57" spans="4:40">
+      <c r="D57" s="4"/>
+      <c r="E57" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="4"/>
+      <c r="AM57" s="4"/>
+      <c r="AN57" s="4"/>
+    </row>
+    <row r="58" spans="4:40">
+      <c r="D58" s="4"/>
+      <c r="E58" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="4"/>
+      <c r="AM58" s="4"/>
+      <c r="AN58" s="4"/>
+    </row>
+    <row r="59" spans="4:40">
+      <c r="D59" s="4"/>
+      <c r="E59" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="4"/>
+      <c r="AH59" s="4"/>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="4"/>
+      <c r="AL59" s="4"/>
+      <c r="AM59" s="4"/>
+      <c r="AN59" s="4"/>
+    </row>
+    <row r="60" spans="4:40">
+      <c r="D60" s="4"/>
+      <c r="E60" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="4"/>
+      <c r="AI60" s="4"/>
+      <c r="AJ60" s="4"/>
+      <c r="AK60" s="4"/>
+      <c r="AL60" s="4"/>
+      <c r="AM60" s="4"/>
+      <c r="AN60" s="4"/>
+    </row>
+    <row r="61" spans="4:40">
+      <c r="D61" s="4"/>
+      <c r="E61" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="4"/>
+      <c r="AH61" s="4"/>
+      <c r="AI61" s="4"/>
+      <c r="AJ61" s="4"/>
+      <c r="AK61" s="4"/>
+      <c r="AL61" s="4"/>
+      <c r="AM61" s="4"/>
+      <c r="AN61" s="4"/>
+    </row>
+    <row r="62" spans="4:40">
+      <c r="D62" s="4"/>
+      <c r="E62" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="4"/>
+      <c r="AH62" s="4"/>
+      <c r="AI62" s="4"/>
+      <c r="AJ62" s="4"/>
+      <c r="AK62" s="4"/>
+      <c r="AL62" s="4"/>
+      <c r="AM62" s="4"/>
+      <c r="AN62" s="4"/>
+    </row>
+    <row r="63" spans="4:40">
+      <c r="D63" s="4"/>
+      <c r="E63" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="4"/>
+      <c r="AI63" s="4"/>
+      <c r="AJ63" s="4"/>
+      <c r="AK63" s="4"/>
+      <c r="AL63" s="4"/>
+      <c r="AM63" s="4"/>
+      <c r="AN63" s="4"/>
+    </row>
+    <row r="64" spans="4:40">
+      <c r="D64" s="4"/>
+      <c r="E64" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="4"/>
+      <c r="AJ64" s="4"/>
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="4"/>
+      <c r="AM64" s="4"/>
+      <c r="AN64" s="4"/>
+    </row>
+    <row r="65" spans="1:52">
+      <c r="D65" s="4"/>
+      <c r="E65" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4"/>
+      <c r="AF65" s="4"/>
+      <c r="AG65" s="4"/>
+      <c r="AH65" s="4"/>
+      <c r="AI65" s="4"/>
+      <c r="AJ65" s="4"/>
+      <c r="AK65" s="4"/>
+      <c r="AL65" s="4"/>
+      <c r="AM65" s="4"/>
+      <c r="AN65" s="4"/>
+    </row>
+    <row r="66" spans="1:52">
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="4"/>
+      <c r="AG66" s="4"/>
+      <c r="AH66" s="4"/>
+      <c r="AI66" s="4"/>
+      <c r="AJ66" s="4"/>
+      <c r="AK66" s="4"/>
+      <c r="AL66" s="4"/>
+      <c r="AM66" s="4"/>
+      <c r="AN66" s="4"/>
+    </row>
+    <row r="70" spans="1:52">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="1"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+    </row>
+    <row r="72" spans="1:52">
+      <c r="D72" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52">
+      <c r="D73" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:52">
+      <c r="D74" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:52">
+      <c r="D76" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:52">
+      <c r="D77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:52">
+      <c r="D78" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52">
+      <c r="D79" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:52">
+      <c r="D80" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:52">
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+      <c r="AD81" s="4"/>
+      <c r="AE81" s="4"/>
+      <c r="AF81" s="4"/>
+      <c r="AG81" s="4"/>
+      <c r="AH81" s="4"/>
+    </row>
+    <row r="82" spans="1:52">
+      <c r="D82" s="4"/>
+      <c r="E82" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AD82" s="4"/>
+      <c r="AE82" s="4"/>
+      <c r="AF82" s="4"/>
+      <c r="AG82" s="4"/>
+      <c r="AH82" s="4"/>
+    </row>
+    <row r="83" spans="1:52">
+      <c r="D83" s="4"/>
+      <c r="E83" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+      <c r="AD83" s="4"/>
+      <c r="AE83" s="4"/>
+      <c r="AF83" s="4"/>
+      <c r="AG83" s="4"/>
+      <c r="AH83" s="4"/>
+    </row>
+    <row r="84" spans="1:52">
+      <c r="D84" s="4"/>
+      <c r="E84" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="4"/>
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="4"/>
+      <c r="AD84" s="4"/>
+      <c r="AE84" s="4"/>
+      <c r="AF84" s="4"/>
+      <c r="AG84" s="4"/>
+      <c r="AH84" s="4"/>
+    </row>
+    <row r="85" spans="1:52">
+      <c r="D85" s="4"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="4"/>
+      <c r="AB85" s="4"/>
+      <c r="AC85" s="4"/>
+      <c r="AD85" s="4"/>
+      <c r="AE85" s="4"/>
+      <c r="AF85" s="4"/>
+      <c r="AG85" s="4"/>
+      <c r="AH85" s="4"/>
+    </row>
+    <row r="86" spans="1:52">
+      <c r="D86" t="s">
+        <v>50</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:52">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AV89" s="1"/>
+      <c r="AW89" s="1"/>
+      <c r="AX89" s="1"/>
+      <c r="AY89" s="1"/>
+      <c r="AZ89" s="1"/>
+    </row>
+    <row r="91" spans="1:52">
+      <c r="D91" t="s">
+        <v>50</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:52">
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+      <c r="AD92" s="4"/>
+      <c r="AE92" s="4"/>
+      <c r="AF92" s="4"/>
+      <c r="AG92" s="4"/>
+      <c r="AH92" s="4"/>
+      <c r="AI92" s="4"/>
+      <c r="AJ92" s="4"/>
+      <c r="AK92" s="4"/>
+      <c r="AL92" s="4"/>
+      <c r="AM92" s="4"/>
+    </row>
+    <row r="93" spans="1:52">
+      <c r="D93" s="4"/>
+      <c r="E93" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="4"/>
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="4"/>
+      <c r="AD93" s="4"/>
+      <c r="AE93" s="4"/>
+      <c r="AF93" s="4"/>
+      <c r="AG93" s="4"/>
+      <c r="AH93" s="4"/>
+      <c r="AI93" s="4"/>
+      <c r="AJ93" s="4"/>
+      <c r="AK93" s="4"/>
+      <c r="AL93" s="4"/>
+      <c r="AM93" s="4"/>
+    </row>
+    <row r="94" spans="1:52">
+      <c r="D94" s="4"/>
+      <c r="E94" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" s="4"/>
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="4"/>
+      <c r="AD94" s="4"/>
+      <c r="AE94" s="4"/>
+      <c r="AF94" s="4"/>
+      <c r="AG94" s="4"/>
+      <c r="AH94" s="4"/>
+      <c r="AI94" s="4"/>
+      <c r="AJ94" s="4"/>
+      <c r="AK94" s="4"/>
+      <c r="AL94" s="4"/>
+      <c r="AM94" s="4"/>
+    </row>
+    <row r="95" spans="1:52">
+      <c r="D95" s="4"/>
+      <c r="E95" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+      <c r="AD95" s="4"/>
+      <c r="AE95" s="4"/>
+      <c r="AF95" s="4"/>
+      <c r="AG95" s="4"/>
+      <c r="AH95" s="4"/>
+      <c r="AI95" s="4"/>
+      <c r="AJ95" s="4"/>
+      <c r="AK95" s="4"/>
+      <c r="AL95" s="4"/>
+      <c r="AM95" s="4"/>
+    </row>
+    <row r="96" spans="1:52">
+      <c r="D96" s="4"/>
+      <c r="E96" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="4"/>
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="4"/>
+      <c r="AD96" s="4"/>
+      <c r="AE96" s="4"/>
+      <c r="AF96" s="4"/>
+      <c r="AG96" s="4"/>
+      <c r="AH96" s="4"/>
+      <c r="AI96" s="4"/>
+      <c r="AJ96" s="4"/>
+      <c r="AK96" s="4"/>
+      <c r="AL96" s="4"/>
+      <c r="AM96" s="4"/>
+    </row>
+    <row r="97" spans="4:39">
+      <c r="D97" s="4"/>
+      <c r="E97" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="4"/>
+      <c r="AD97" s="4"/>
+      <c r="AE97" s="4"/>
+      <c r="AF97" s="4"/>
+      <c r="AG97" s="4"/>
+      <c r="AH97" s="4"/>
+      <c r="AI97" s="4"/>
+      <c r="AJ97" s="4"/>
+      <c r="AK97" s="4"/>
+      <c r="AL97" s="4"/>
+      <c r="AM97" s="4"/>
+    </row>
+    <row r="98" spans="4:39">
+      <c r="D98" s="4"/>
+      <c r="E98" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
+      <c r="AA98" s="4"/>
+      <c r="AB98" s="4"/>
+      <c r="AC98" s="4"/>
+      <c r="AD98" s="4"/>
+      <c r="AE98" s="4"/>
+      <c r="AF98" s="4"/>
+      <c r="AG98" s="4"/>
+      <c r="AH98" s="4"/>
+      <c r="AI98" s="4"/>
+      <c r="AJ98" s="4"/>
+      <c r="AK98" s="4"/>
+      <c r="AL98" s="4"/>
+      <c r="AM98" s="4"/>
+    </row>
+    <row r="99" spans="4:39">
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
+      <c r="AA99" s="4"/>
+      <c r="AB99" s="4"/>
+      <c r="AC99" s="4"/>
+      <c r="AD99" s="4"/>
+      <c r="AE99" s="4"/>
+      <c r="AF99" s="4"/>
+      <c r="AG99" s="4"/>
+      <c r="AH99" s="4"/>
+      <c r="AI99" s="4"/>
+      <c r="AJ99" s="4"/>
+      <c r="AK99" s="4"/>
+      <c r="AL99" s="4"/>
+      <c r="AM99" s="4"/>
+    </row>
+    <row r="101" spans="4:39">
+      <c r="D101" t="s">
+        <v>50</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="102" spans="4:39">
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
+      <c r="AA102" s="4"/>
+      <c r="AB102" s="4"/>
+      <c r="AC102" s="4"/>
+      <c r="AD102" s="4"/>
+      <c r="AE102" s="4"/>
+      <c r="AF102" s="4"/>
+      <c r="AG102" s="4"/>
+      <c r="AH102" s="4"/>
+      <c r="AI102" s="4"/>
+      <c r="AJ102" s="4"/>
+      <c r="AK102" s="4"/>
+    </row>
+    <row r="103" spans="4:39">
+      <c r="D103" s="4"/>
+      <c r="E103" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
+      <c r="AA103" s="4"/>
+      <c r="AB103" s="4"/>
+      <c r="AC103" s="4"/>
+      <c r="AD103" s="4"/>
+      <c r="AE103" s="4"/>
+      <c r="AF103" s="4"/>
+      <c r="AG103" s="4"/>
+      <c r="AH103" s="4"/>
+      <c r="AI103" s="4"/>
+      <c r="AJ103" s="4"/>
+      <c r="AK103" s="4"/>
+    </row>
+    <row r="104" spans="4:39">
+      <c r="D104" s="4"/>
+      <c r="E104" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4"/>
+      <c r="AA104" s="4"/>
+      <c r="AB104" s="4"/>
+      <c r="AC104" s="4"/>
+      <c r="AD104" s="4"/>
+      <c r="AE104" s="4"/>
+      <c r="AF104" s="4"/>
+      <c r="AG104" s="4"/>
+      <c r="AH104" s="4"/>
+      <c r="AI104" s="4"/>
+      <c r="AJ104" s="4"/>
+      <c r="AK104" s="4"/>
+    </row>
+    <row r="105" spans="4:39">
+      <c r="D105" s="4"/>
+      <c r="E105" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
+      <c r="AA105" s="4"/>
+      <c r="AB105" s="4"/>
+      <c r="AC105" s="4"/>
+      <c r="AD105" s="4"/>
+      <c r="AE105" s="4"/>
+      <c r="AF105" s="4"/>
+      <c r="AG105" s="4"/>
+      <c r="AH105" s="4"/>
+      <c r="AI105" s="4"/>
+      <c r="AJ105" s="4"/>
+      <c r="AK105" s="4"/>
+    </row>
+    <row r="106" spans="4:39">
+      <c r="D106" s="4"/>
+      <c r="E106" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4"/>
+      <c r="AA106" s="4"/>
+      <c r="AB106" s="4"/>
+      <c r="AC106" s="4"/>
+      <c r="AD106" s="4"/>
+      <c r="AE106" s="4"/>
+      <c r="AF106" s="4"/>
+      <c r="AG106" s="4"/>
+      <c r="AH106" s="4"/>
+      <c r="AI106" s="4"/>
+      <c r="AJ106" s="4"/>
+      <c r="AK106" s="4"/>
+    </row>
+    <row r="107" spans="4:39">
+      <c r="D107" s="4"/>
+      <c r="E107" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="4"/>
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="4"/>
+      <c r="AA107" s="4"/>
+      <c r="AB107" s="4"/>
+      <c r="AC107" s="4"/>
+      <c r="AD107" s="4"/>
+      <c r="AE107" s="4"/>
+      <c r="AF107" s="4"/>
+      <c r="AG107" s="4"/>
+      <c r="AH107" s="4"/>
+      <c r="AI107" s="4"/>
+      <c r="AJ107" s="4"/>
+      <c r="AK107" s="4"/>
+    </row>
+    <row r="108" spans="4:39">
+      <c r="D108" s="4"/>
+      <c r="E108" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4"/>
+      <c r="AA108" s="4"/>
+      <c r="AB108" s="4"/>
+      <c r="AC108" s="4"/>
+      <c r="AD108" s="4"/>
+      <c r="AE108" s="4"/>
+      <c r="AF108" s="4"/>
+      <c r="AG108" s="4"/>
+      <c r="AH108" s="4"/>
+      <c r="AI108" s="4"/>
+      <c r="AJ108" s="4"/>
+      <c r="AK108" s="4"/>
+    </row>
+    <row r="109" spans="4:39">
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4"/>
+      <c r="AA109" s="4"/>
+      <c r="AB109" s="4"/>
+      <c r="AC109" s="4"/>
+      <c r="AD109" s="4"/>
+      <c r="AE109" s="4"/>
+      <c r="AF109" s="4"/>
+      <c r="AG109" s="4"/>
+      <c r="AH109" s="4"/>
+      <c r="AI109" s="4"/>
+      <c r="AJ109" s="4"/>
+      <c r="AK109" s="4"/>
+    </row>
+    <row r="111" spans="4:39">
+      <c r="D111" t="s">
+        <v>50</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="112" spans="4:39">
+      <c r="D112" t="s">
+        <v>50</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3863,16 +9183,2532 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:AZ230"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="1:52">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="D5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="D6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="D10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="D11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="D12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="D13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="D14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="D15" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52">
+      <c r="D65" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52">
+      <c r="D66" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52">
+      <c r="D67" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52">
+      <c r="D68" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52">
+      <c r="D69" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="1"/>
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="1"/>
+      <c r="AX72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+    </row>
+    <row r="74" spans="1:52">
+      <c r="D74" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:52">
+      <c r="D75" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:52">
+      <c r="D77" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:52">
+      <c r="D78" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52">
+      <c r="D79" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="81" spans="28:29">
+      <c r="AB81" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC81" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="28:29">
+      <c r="AB82" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC82" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:52">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+      <c r="AJ102" s="1"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
+      <c r="AM102" s="1"/>
+      <c r="AN102" s="1"/>
+      <c r="AO102" s="1"/>
+      <c r="AP102" s="1"/>
+      <c r="AQ102" s="1"/>
+      <c r="AR102" s="1"/>
+      <c r="AS102" s="1"/>
+      <c r="AT102" s="1"/>
+      <c r="AU102" s="1"/>
+      <c r="AV102" s="1"/>
+      <c r="AW102" s="1"/>
+      <c r="AX102" s="1"/>
+      <c r="AY102" s="1"/>
+      <c r="AZ102" s="1"/>
+    </row>
+    <row r="104" spans="1:52">
+      <c r="D104" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:52">
+      <c r="D105" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:52">
+      <c r="D106" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="107" spans="1:52">
+      <c r="D107" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="108" spans="1:52">
+      <c r="D108" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="1:52">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1"/>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="1"/>
+      <c r="AL111" s="1"/>
+      <c r="AM111" s="1"/>
+      <c r="AN111" s="1"/>
+      <c r="AO111" s="1"/>
+      <c r="AP111" s="1"/>
+      <c r="AQ111" s="1"/>
+      <c r="AR111" s="1"/>
+      <c r="AS111" s="1"/>
+      <c r="AT111" s="1"/>
+      <c r="AU111" s="1"/>
+      <c r="AV111" s="1"/>
+      <c r="AW111" s="1"/>
+      <c r="AX111" s="1"/>
+      <c r="AY111" s="1"/>
+      <c r="AZ111" s="1"/>
+    </row>
+    <row r="113" spans="4:25">
+      <c r="D113" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="114" spans="4:25">
+      <c r="D114" t="s">
+        <v>50</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="115" spans="4:25">
+      <c r="D115" t="s">
+        <v>50</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="116" spans="4:25">
+      <c r="D116" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="117" spans="4:25">
+      <c r="D117" t="s">
+        <v>50</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="118" spans="4:25">
+      <c r="D118" t="s">
+        <v>50</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="119" spans="4:25">
+      <c r="D119" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="4:25">
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
+    </row>
+    <row r="121" spans="4:25">
+      <c r="D121" s="4"/>
+      <c r="E121" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+      <c r="X121" s="4"/>
+      <c r="Y121" s="4"/>
+    </row>
+    <row r="122" spans="4:25">
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
+    </row>
+    <row r="124" spans="4:25">
+      <c r="D124" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="125" spans="4:25">
+      <c r="D125" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="126" spans="4:25">
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="4"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
+    </row>
+    <row r="127" spans="4:25">
+      <c r="D127" s="4"/>
+      <c r="E127" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+    </row>
+    <row r="128" spans="4:25">
+      <c r="D128" s="4"/>
+      <c r="E128" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+      <c r="R128" s="4"/>
+      <c r="S128" s="4"/>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+      <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
+    </row>
+    <row r="129" spans="4:25">
+      <c r="D129" s="4"/>
+      <c r="E129" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+    </row>
+    <row r="130" spans="4:25">
+      <c r="D130" s="4"/>
+      <c r="E130" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+    </row>
+    <row r="131" spans="4:25">
+      <c r="D131" s="4"/>
+      <c r="E131" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+    </row>
+    <row r="132" spans="4:25">
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+    </row>
+    <row r="134" spans="4:25">
+      <c r="D134" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="135" spans="4:25">
+      <c r="D135" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="136" spans="4:25">
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+    </row>
+    <row r="137" spans="4:25">
+      <c r="D137" s="4"/>
+      <c r="E137" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="4"/>
+      <c r="S137" s="4"/>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+    </row>
+    <row r="138" spans="4:25">
+      <c r="D138" s="4"/>
+      <c r="E138" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+      <c r="R138" s="4"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="4"/>
+      <c r="W138" s="4"/>
+      <c r="X138" s="4"/>
+      <c r="Y138" s="4"/>
+    </row>
+    <row r="139" spans="4:25">
+      <c r="D139" s="4"/>
+      <c r="E139" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+      <c r="X139" s="4"/>
+      <c r="Y139" s="4"/>
+    </row>
+    <row r="140" spans="4:25">
+      <c r="D140" s="4"/>
+      <c r="E140" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="4"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="4"/>
+      <c r="X140" s="4"/>
+      <c r="Y140" s="4"/>
+    </row>
+    <row r="141" spans="4:25">
+      <c r="D141" s="4"/>
+      <c r="E141" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="4"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="4"/>
+      <c r="X141" s="4"/>
+      <c r="Y141" s="4"/>
+    </row>
+    <row r="142" spans="4:25">
+      <c r="D142" s="4"/>
+      <c r="E142" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
+      <c r="R142" s="4"/>
+      <c r="S142" s="4"/>
+      <c r="T142" s="4"/>
+      <c r="U142" s="4"/>
+      <c r="V142" s="4"/>
+      <c r="W142" s="4"/>
+      <c r="X142" s="4"/>
+      <c r="Y142" s="4"/>
+    </row>
+    <row r="143" spans="4:25">
+      <c r="D143" s="4"/>
+      <c r="E143" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="4"/>
+      <c r="S143" s="4"/>
+      <c r="T143" s="4"/>
+      <c r="U143" s="4"/>
+      <c r="V143" s="4"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
+    </row>
+    <row r="144" spans="4:25">
+      <c r="D144" s="4"/>
+      <c r="E144" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="4"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="4"/>
+      <c r="W144" s="4"/>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="4"/>
+    </row>
+    <row r="145" spans="4:27">
+      <c r="D145" s="4"/>
+      <c r="E145" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="4"/>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
+    </row>
+    <row r="146" spans="4:27">
+      <c r="D146" s="4"/>
+      <c r="E146" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
+    </row>
+    <row r="147" spans="4:27">
+      <c r="D147" s="4"/>
+      <c r="E147" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
+    </row>
+    <row r="148" spans="4:27">
+      <c r="D148" s="4"/>
+      <c r="E148" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
+    </row>
+    <row r="149" spans="4:27">
+      <c r="D149" s="4"/>
+      <c r="E149" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
+      <c r="S149" s="4"/>
+      <c r="T149" s="4"/>
+      <c r="U149" s="4"/>
+      <c r="V149" s="4"/>
+      <c r="W149" s="4"/>
+      <c r="X149" s="4"/>
+      <c r="Y149" s="4"/>
+    </row>
+    <row r="150" spans="4:27">
+      <c r="D150" s="4"/>
+      <c r="E150" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+      <c r="Y150" s="4"/>
+    </row>
+    <row r="151" spans="4:27">
+      <c r="D151" s="4"/>
+      <c r="E151" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
+      <c r="R151" s="4"/>
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+      <c r="U151" s="4"/>
+      <c r="V151" s="4"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="4"/>
+    </row>
+    <row r="152" spans="4:27">
+      <c r="D152" s="4"/>
+      <c r="E152" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
+      <c r="R152" s="4"/>
+      <c r="S152" s="4"/>
+      <c r="T152" s="4"/>
+      <c r="U152" s="4"/>
+      <c r="V152" s="4"/>
+      <c r="W152" s="4"/>
+      <c r="X152" s="4"/>
+      <c r="Y152" s="4"/>
+    </row>
+    <row r="153" spans="4:27">
+      <c r="D153" s="4"/>
+      <c r="E153" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
+      <c r="R153" s="4"/>
+      <c r="S153" s="4"/>
+      <c r="T153" s="4"/>
+      <c r="U153" s="4"/>
+      <c r="V153" s="4"/>
+      <c r="W153" s="4"/>
+      <c r="X153" s="4"/>
+      <c r="Y153" s="4"/>
+    </row>
+    <row r="154" spans="4:27">
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
+      <c r="R154" s="4"/>
+      <c r="S154" s="4"/>
+      <c r="T154" s="4"/>
+      <c r="U154" s="4"/>
+      <c r="V154" s="4"/>
+      <c r="W154" s="4"/>
+      <c r="X154" s="4"/>
+      <c r="Y154" s="4"/>
+    </row>
+    <row r="156" spans="4:27">
+      <c r="D156" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="158" spans="4:27">
+      <c r="D158" t="s">
+        <v>50</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="159" spans="4:27">
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="4"/>
+      <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
+      <c r="R159" s="4"/>
+      <c r="S159" s="4"/>
+      <c r="T159" s="4"/>
+      <c r="U159" s="4"/>
+      <c r="V159" s="4"/>
+      <c r="W159" s="4"/>
+      <c r="X159" s="4"/>
+      <c r="Y159" s="4"/>
+      <c r="Z159" s="4"/>
+      <c r="AA159" s="4"/>
+    </row>
+    <row r="160" spans="4:27">
+      <c r="D160" s="4"/>
+      <c r="E160" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="4"/>
+      <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
+      <c r="R160" s="4"/>
+      <c r="S160" s="4"/>
+      <c r="T160" s="4"/>
+      <c r="U160" s="4"/>
+      <c r="V160" s="4"/>
+      <c r="W160" s="4"/>
+      <c r="X160" s="4"/>
+      <c r="Y160" s="4"/>
+      <c r="Z160" s="4"/>
+      <c r="AA160" s="4"/>
+    </row>
+    <row r="161" spans="4:35">
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="4"/>
+      <c r="P161" s="4"/>
+      <c r="Q161" s="4"/>
+      <c r="R161" s="4"/>
+      <c r="S161" s="4"/>
+      <c r="T161" s="4"/>
+      <c r="U161" s="4"/>
+      <c r="V161" s="4"/>
+      <c r="W161" s="4"/>
+      <c r="X161" s="4"/>
+      <c r="Y161" s="4"/>
+      <c r="Z161" s="4"/>
+      <c r="AA161" s="4"/>
+    </row>
+    <row r="163" spans="4:35">
+      <c r="D163" t="s">
+        <v>50</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="164" spans="4:35">
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
+      <c r="R164" s="4"/>
+      <c r="S164" s="4"/>
+      <c r="T164" s="4"/>
+      <c r="U164" s="4"/>
+      <c r="V164" s="4"/>
+      <c r="W164" s="4"/>
+      <c r="X164" s="4"/>
+      <c r="Y164" s="4"/>
+      <c r="Z164" s="4"/>
+      <c r="AA164" s="4"/>
+      <c r="AB164" s="4"/>
+      <c r="AC164" s="4"/>
+      <c r="AD164" s="4"/>
+      <c r="AE164" s="4"/>
+      <c r="AF164" s="4"/>
+      <c r="AG164" s="4"/>
+    </row>
+    <row r="165" spans="4:35">
+      <c r="D165" s="4"/>
+      <c r="E165" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="4"/>
+      <c r="S165" s="4"/>
+      <c r="T165" s="4"/>
+      <c r="U165" s="4"/>
+      <c r="V165" s="4"/>
+      <c r="W165" s="4"/>
+      <c r="X165" s="4"/>
+      <c r="Y165" s="4"/>
+      <c r="Z165" s="4"/>
+      <c r="AA165" s="4"/>
+      <c r="AB165" s="4"/>
+      <c r="AC165" s="4"/>
+      <c r="AD165" s="4"/>
+      <c r="AE165" s="4"/>
+      <c r="AF165" s="4"/>
+      <c r="AG165" s="4"/>
+    </row>
+    <row r="166" spans="4:35">
+      <c r="D166" s="4"/>
+      <c r="E166" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
+      <c r="R166" s="4"/>
+      <c r="S166" s="4"/>
+      <c r="T166" s="4"/>
+      <c r="U166" s="4"/>
+      <c r="V166" s="4"/>
+      <c r="W166" s="4"/>
+      <c r="X166" s="4"/>
+      <c r="Y166" s="4"/>
+      <c r="Z166" s="4"/>
+      <c r="AA166" s="4"/>
+      <c r="AB166" s="4"/>
+      <c r="AC166" s="4"/>
+      <c r="AD166" s="4"/>
+      <c r="AE166" s="4"/>
+      <c r="AF166" s="4"/>
+      <c r="AG166" s="4"/>
+    </row>
+    <row r="167" spans="4:35">
+      <c r="D167" s="4"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
+      <c r="O167" s="4"/>
+      <c r="P167" s="4"/>
+      <c r="Q167" s="4"/>
+      <c r="R167" s="4"/>
+      <c r="S167" s="4"/>
+      <c r="T167" s="4"/>
+      <c r="U167" s="4"/>
+      <c r="V167" s="4"/>
+      <c r="W167" s="4"/>
+      <c r="X167" s="4"/>
+      <c r="Y167" s="4"/>
+      <c r="Z167" s="4"/>
+      <c r="AA167" s="4"/>
+      <c r="AB167" s="4"/>
+      <c r="AC167" s="4"/>
+      <c r="AD167" s="4"/>
+      <c r="AE167" s="4"/>
+      <c r="AF167" s="4"/>
+      <c r="AG167" s="4"/>
+    </row>
+    <row r="168" spans="4:35">
+      <c r="D168" s="4"/>
+      <c r="E168" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="4"/>
+      <c r="O168" s="4"/>
+      <c r="P168" s="4"/>
+      <c r="Q168" s="4"/>
+      <c r="R168" s="4"/>
+      <c r="S168" s="4"/>
+      <c r="T168" s="4"/>
+      <c r="U168" s="4"/>
+      <c r="V168" s="4"/>
+      <c r="W168" s="4"/>
+      <c r="X168" s="4"/>
+      <c r="Y168" s="4"/>
+      <c r="Z168" s="4"/>
+      <c r="AA168" s="4"/>
+      <c r="AB168" s="4"/>
+      <c r="AC168" s="4"/>
+      <c r="AD168" s="4"/>
+      <c r="AE168" s="4"/>
+      <c r="AF168" s="4"/>
+      <c r="AG168" s="4"/>
+    </row>
+    <row r="169" spans="4:35">
+      <c r="D169" s="4"/>
+      <c r="E169" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4"/>
+      <c r="O169" s="4"/>
+      <c r="P169" s="4"/>
+      <c r="Q169" s="4"/>
+      <c r="R169" s="4"/>
+      <c r="S169" s="4"/>
+      <c r="T169" s="4"/>
+      <c r="U169" s="4"/>
+      <c r="V169" s="4"/>
+      <c r="W169" s="4"/>
+      <c r="X169" s="4"/>
+      <c r="Y169" s="4"/>
+      <c r="Z169" s="4"/>
+      <c r="AA169" s="4"/>
+      <c r="AB169" s="4"/>
+      <c r="AC169" s="4"/>
+      <c r="AD169" s="4"/>
+      <c r="AE169" s="4"/>
+      <c r="AF169" s="4"/>
+      <c r="AG169" s="4"/>
+    </row>
+    <row r="171" spans="4:35">
+      <c r="D171" t="s">
+        <v>50</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="172" spans="4:35">
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
+      <c r="R172" s="4"/>
+      <c r="S172" s="4"/>
+      <c r="T172" s="4"/>
+      <c r="U172" s="4"/>
+      <c r="V172" s="4"/>
+      <c r="W172" s="4"/>
+      <c r="X172" s="4"/>
+      <c r="Y172" s="4"/>
+      <c r="Z172" s="4"/>
+      <c r="AA172" s="4"/>
+      <c r="AB172" s="4"/>
+      <c r="AC172" s="4"/>
+      <c r="AD172" s="4"/>
+      <c r="AE172" s="4"/>
+      <c r="AF172" s="4"/>
+      <c r="AG172" s="4"/>
+      <c r="AH172" s="4"/>
+      <c r="AI172" s="4"/>
+    </row>
+    <row r="173" spans="4:35">
+      <c r="D173" s="4"/>
+      <c r="E173" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="4"/>
+      <c r="S173" s="4"/>
+      <c r="T173" s="4"/>
+      <c r="U173" s="4"/>
+      <c r="V173" s="4"/>
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+      <c r="Y173" s="4"/>
+      <c r="Z173" s="4"/>
+      <c r="AA173" s="4"/>
+      <c r="AB173" s="4"/>
+      <c r="AC173" s="4"/>
+      <c r="AD173" s="4"/>
+      <c r="AE173" s="4"/>
+      <c r="AF173" s="4"/>
+      <c r="AG173" s="4"/>
+      <c r="AH173" s="4"/>
+      <c r="AI173" s="4"/>
+    </row>
+    <row r="174" spans="4:35">
+      <c r="D174" s="4"/>
+      <c r="E174" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
+      <c r="R174" s="4"/>
+      <c r="S174" s="4"/>
+      <c r="T174" s="4"/>
+      <c r="U174" s="4"/>
+      <c r="V174" s="4"/>
+      <c r="W174" s="4"/>
+      <c r="X174" s="4"/>
+      <c r="Y174" s="4"/>
+      <c r="Z174" s="4"/>
+      <c r="AA174" s="4"/>
+      <c r="AB174" s="4"/>
+      <c r="AC174" s="4"/>
+      <c r="AD174" s="4"/>
+      <c r="AE174" s="4"/>
+      <c r="AF174" s="4"/>
+      <c r="AG174" s="4"/>
+      <c r="AH174" s="4"/>
+      <c r="AI174" s="4"/>
+    </row>
+    <row r="175" spans="4:35">
+      <c r="D175" s="4"/>
+      <c r="E175" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
+      <c r="Q175" s="4"/>
+      <c r="R175" s="4"/>
+      <c r="S175" s="4"/>
+      <c r="T175" s="4"/>
+      <c r="U175" s="4"/>
+      <c r="V175" s="4"/>
+      <c r="W175" s="4"/>
+      <c r="X175" s="4"/>
+      <c r="Y175" s="4"/>
+      <c r="Z175" s="4"/>
+      <c r="AA175" s="4"/>
+      <c r="AB175" s="4"/>
+      <c r="AC175" s="4"/>
+      <c r="AD175" s="4"/>
+      <c r="AE175" s="4"/>
+      <c r="AF175" s="4"/>
+      <c r="AG175" s="4"/>
+      <c r="AH175" s="4"/>
+      <c r="AI175" s="4"/>
+    </row>
+    <row r="178" spans="1:52">
+      <c r="D178" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="179" spans="1:52">
+      <c r="D179" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="180" spans="1:52">
+      <c r="D180" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="182" spans="1:52">
+      <c r="D182" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="183" spans="1:52">
+      <c r="D183" t="s">
+        <v>50</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="184" spans="1:52">
+      <c r="D184" t="s">
+        <v>50</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="185" spans="1:52">
+      <c r="D185" t="s">
+        <v>50</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="188" spans="1:52">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+      <c r="U188" s="1"/>
+      <c r="V188" s="1"/>
+      <c r="W188" s="1"/>
+      <c r="X188" s="1"/>
+      <c r="Y188" s="1"/>
+      <c r="Z188" s="1"/>
+      <c r="AA188" s="1"/>
+      <c r="AB188" s="1"/>
+      <c r="AC188" s="1"/>
+      <c r="AD188" s="1"/>
+      <c r="AE188" s="1"/>
+      <c r="AF188" s="1"/>
+      <c r="AG188" s="1"/>
+      <c r="AH188" s="1"/>
+      <c r="AI188" s="1"/>
+      <c r="AJ188" s="1"/>
+      <c r="AK188" s="1"/>
+      <c r="AL188" s="1"/>
+      <c r="AM188" s="1"/>
+      <c r="AN188" s="1"/>
+      <c r="AO188" s="1"/>
+      <c r="AP188" s="1"/>
+      <c r="AQ188" s="1"/>
+      <c r="AR188" s="1"/>
+      <c r="AS188" s="1"/>
+      <c r="AT188" s="1"/>
+      <c r="AU188" s="1"/>
+      <c r="AV188" s="1"/>
+      <c r="AW188" s="1"/>
+      <c r="AX188" s="1"/>
+      <c r="AY188" s="1"/>
+      <c r="AZ188" s="1"/>
+    </row>
+    <row r="190" spans="1:52">
+      <c r="D190" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="192" spans="1:52">
+      <c r="D192" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="193" spans="4:36">
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" spans="4:36">
+      <c r="D194" t="s">
+        <v>50</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="195" spans="4:36">
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="4"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="4"/>
+      <c r="N195" s="4"/>
+      <c r="O195" s="4"/>
+      <c r="P195" s="4"/>
+      <c r="Q195" s="4"/>
+      <c r="R195" s="4"/>
+      <c r="S195" s="4"/>
+      <c r="T195" s="4"/>
+      <c r="U195" s="4"/>
+      <c r="V195" s="4"/>
+      <c r="W195" s="4"/>
+      <c r="X195" s="4"/>
+      <c r="Y195" s="4"/>
+      <c r="Z195" s="4"/>
+      <c r="AA195" s="4"/>
+      <c r="AB195" s="4"/>
+      <c r="AC195" s="4"/>
+      <c r="AD195" s="4"/>
+      <c r="AE195" s="4"/>
+      <c r="AF195" s="4"/>
+      <c r="AG195" s="4"/>
+      <c r="AH195" s="4"/>
+      <c r="AI195" s="4"/>
+      <c r="AJ195" s="4"/>
+    </row>
+    <row r="196" spans="4:36">
+      <c r="D196" s="4"/>
+      <c r="E196" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="4"/>
+      <c r="S196" s="4"/>
+      <c r="T196" s="4"/>
+      <c r="U196" s="4"/>
+      <c r="V196" s="4"/>
+      <c r="W196" s="4"/>
+      <c r="X196" s="4"/>
+      <c r="Y196" s="4"/>
+      <c r="Z196" s="4"/>
+      <c r="AA196" s="4"/>
+      <c r="AB196" s="4"/>
+      <c r="AC196" s="4"/>
+      <c r="AD196" s="4"/>
+      <c r="AE196" s="4"/>
+      <c r="AF196" s="4"/>
+      <c r="AG196" s="4"/>
+      <c r="AH196" s="4"/>
+      <c r="AI196" s="4"/>
+      <c r="AJ196" s="4"/>
+    </row>
+    <row r="197" spans="4:36">
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+      <c r="R197" s="4"/>
+      <c r="S197" s="4"/>
+      <c r="T197" s="4"/>
+      <c r="U197" s="4"/>
+      <c r="V197" s="4"/>
+      <c r="W197" s="4"/>
+      <c r="X197" s="4"/>
+      <c r="Y197" s="4"/>
+      <c r="Z197" s="4"/>
+      <c r="AA197" s="4"/>
+      <c r="AB197" s="4"/>
+      <c r="AC197" s="4"/>
+      <c r="AD197" s="4"/>
+      <c r="AE197" s="4"/>
+      <c r="AF197" s="4"/>
+      <c r="AG197" s="4"/>
+      <c r="AH197" s="4"/>
+      <c r="AI197" s="4"/>
+      <c r="AJ197" s="4"/>
+    </row>
+    <row r="199" spans="4:36">
+      <c r="D199" t="s">
+        <v>50</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="200" spans="4:36">
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+      <c r="R200" s="4"/>
+      <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
+      <c r="U200" s="4"/>
+      <c r="V200" s="4"/>
+      <c r="W200" s="4"/>
+      <c r="X200" s="4"/>
+      <c r="Y200" s="4"/>
+      <c r="Z200" s="4"/>
+      <c r="AA200" s="4"/>
+      <c r="AB200" s="4"/>
+      <c r="AC200" s="4"/>
+      <c r="AD200" s="4"/>
+      <c r="AE200" s="4"/>
+      <c r="AF200" s="4"/>
+      <c r="AG200" s="4"/>
+    </row>
+    <row r="201" spans="4:36">
+      <c r="D201" s="4"/>
+      <c r="E201" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="4"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="4"/>
+      <c r="O201" s="4"/>
+      <c r="P201" s="4"/>
+      <c r="Q201" s="4"/>
+      <c r="R201" s="4"/>
+      <c r="S201" s="4"/>
+      <c r="T201" s="4"/>
+      <c r="U201" s="4"/>
+      <c r="V201" s="4"/>
+      <c r="W201" s="4"/>
+      <c r="X201" s="4"/>
+      <c r="Y201" s="4"/>
+      <c r="Z201" s="4"/>
+      <c r="AA201" s="4"/>
+      <c r="AB201" s="4"/>
+      <c r="AC201" s="4"/>
+      <c r="AD201" s="4"/>
+      <c r="AE201" s="4"/>
+      <c r="AF201" s="4"/>
+      <c r="AG201" s="4"/>
+    </row>
+    <row r="202" spans="4:36">
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="4"/>
+      <c r="S202" s="4"/>
+      <c r="T202" s="4"/>
+      <c r="U202" s="4"/>
+      <c r="V202" s="4"/>
+      <c r="W202" s="4"/>
+      <c r="X202" s="4"/>
+      <c r="Y202" s="4"/>
+      <c r="Z202" s="4"/>
+      <c r="AA202" s="4"/>
+      <c r="AB202" s="4"/>
+      <c r="AC202" s="4"/>
+      <c r="AD202" s="4"/>
+      <c r="AE202" s="4"/>
+      <c r="AF202" s="4"/>
+      <c r="AG202" s="4"/>
+    </row>
+    <row r="204" spans="4:36">
+      <c r="D204" t="s">
+        <v>50</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="205" spans="4:36">
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="4"/>
+      <c r="S205" s="4"/>
+      <c r="T205" s="4"/>
+      <c r="U205" s="4"/>
+      <c r="V205" s="4"/>
+      <c r="W205" s="4"/>
+      <c r="X205" s="4"/>
+      <c r="Y205" s="4"/>
+      <c r="Z205" s="4"/>
+      <c r="AA205" s="4"/>
+      <c r="AB205" s="4"/>
+      <c r="AC205" s="4"/>
+      <c r="AD205" s="4"/>
+      <c r="AE205" s="4"/>
+      <c r="AF205" s="4"/>
+      <c r="AG205" s="4"/>
+      <c r="AH205" s="4"/>
+      <c r="AI205" s="4"/>
+    </row>
+    <row r="206" spans="4:36">
+      <c r="D206" s="4"/>
+      <c r="E206" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="4"/>
+      <c r="S206" s="4"/>
+      <c r="T206" s="4"/>
+      <c r="U206" s="4"/>
+      <c r="V206" s="4"/>
+      <c r="W206" s="4"/>
+      <c r="X206" s="4"/>
+      <c r="Y206" s="4"/>
+      <c r="Z206" s="4"/>
+      <c r="AA206" s="4"/>
+      <c r="AB206" s="4"/>
+      <c r="AC206" s="4"/>
+      <c r="AD206" s="4"/>
+      <c r="AE206" s="4"/>
+      <c r="AF206" s="4"/>
+      <c r="AG206" s="4"/>
+      <c r="AH206" s="4"/>
+      <c r="AI206" s="4"/>
+    </row>
+    <row r="207" spans="4:36">
+      <c r="D207" s="4"/>
+      <c r="E207" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="4"/>
+      <c r="J207" s="4"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
+      <c r="R207" s="4"/>
+      <c r="S207" s="4"/>
+      <c r="T207" s="4"/>
+      <c r="U207" s="4"/>
+      <c r="V207" s="4"/>
+      <c r="W207" s="4"/>
+      <c r="X207" s="4"/>
+      <c r="Y207" s="4"/>
+      <c r="Z207" s="4"/>
+      <c r="AA207" s="4"/>
+      <c r="AB207" s="4"/>
+      <c r="AC207" s="4"/>
+      <c r="AD207" s="4"/>
+      <c r="AE207" s="4"/>
+      <c r="AF207" s="4"/>
+      <c r="AG207" s="4"/>
+      <c r="AH207" s="4"/>
+      <c r="AI207" s="4"/>
+    </row>
+    <row r="208" spans="4:36">
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
+      <c r="R208" s="4"/>
+      <c r="S208" s="4"/>
+      <c r="T208" s="4"/>
+      <c r="U208" s="4"/>
+      <c r="V208" s="4"/>
+      <c r="W208" s="4"/>
+      <c r="X208" s="4"/>
+      <c r="Y208" s="4"/>
+      <c r="Z208" s="4"/>
+      <c r="AA208" s="4"/>
+      <c r="AB208" s="4"/>
+      <c r="AC208" s="4"/>
+      <c r="AD208" s="4"/>
+      <c r="AE208" s="4"/>
+      <c r="AF208" s="4"/>
+      <c r="AG208" s="4"/>
+      <c r="AH208" s="4"/>
+      <c r="AI208" s="4"/>
+    </row>
+    <row r="210" spans="4:36">
+      <c r="D210" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="213" spans="4:36">
+      <c r="D213" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="215" spans="4:36">
+      <c r="D215" t="s">
+        <v>50</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="216" spans="4:36">
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="4"/>
+      <c r="J216" s="4"/>
+      <c r="K216" s="4"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="4"/>
+      <c r="O216" s="4"/>
+      <c r="P216" s="4"/>
+      <c r="Q216" s="4"/>
+      <c r="R216" s="4"/>
+      <c r="S216" s="4"/>
+      <c r="T216" s="4"/>
+      <c r="U216" s="4"/>
+      <c r="V216" s="4"/>
+      <c r="W216" s="4"/>
+      <c r="X216" s="4"/>
+      <c r="Y216" s="4"/>
+      <c r="Z216" s="4"/>
+      <c r="AA216" s="4"/>
+      <c r="AB216" s="4"/>
+      <c r="AC216" s="4"/>
+      <c r="AD216" s="4"/>
+      <c r="AE216" s="4"/>
+      <c r="AF216" s="4"/>
+      <c r="AG216" s="4"/>
+      <c r="AH216" s="4"/>
+      <c r="AI216" s="4"/>
+      <c r="AJ216" s="4"/>
+    </row>
+    <row r="217" spans="4:36">
+      <c r="D217" s="4"/>
+      <c r="E217" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+      <c r="I217" s="4"/>
+      <c r="J217" s="4"/>
+      <c r="K217" s="4"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4"/>
+      <c r="O217" s="4"/>
+      <c r="P217" s="4"/>
+      <c r="Q217" s="4"/>
+      <c r="R217" s="4"/>
+      <c r="S217" s="4"/>
+      <c r="T217" s="4"/>
+      <c r="U217" s="4"/>
+      <c r="V217" s="4"/>
+      <c r="W217" s="4"/>
+      <c r="X217" s="4"/>
+      <c r="Y217" s="4"/>
+      <c r="Z217" s="4"/>
+      <c r="AA217" s="4"/>
+      <c r="AB217" s="4"/>
+      <c r="AC217" s="4"/>
+      <c r="AD217" s="4"/>
+      <c r="AE217" s="4"/>
+      <c r="AF217" s="4"/>
+      <c r="AG217" s="4"/>
+      <c r="AH217" s="4"/>
+      <c r="AI217" s="4"/>
+      <c r="AJ217" s="4"/>
+    </row>
+    <row r="218" spans="4:36">
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
+      <c r="I218" s="4"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="4"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="4"/>
+      <c r="O218" s="4"/>
+      <c r="P218" s="4"/>
+      <c r="Q218" s="4"/>
+      <c r="R218" s="4"/>
+      <c r="S218" s="4"/>
+      <c r="T218" s="4"/>
+      <c r="U218" s="4"/>
+      <c r="V218" s="4"/>
+      <c r="W218" s="4"/>
+      <c r="X218" s="4"/>
+      <c r="Y218" s="4"/>
+      <c r="Z218" s="4"/>
+      <c r="AA218" s="4"/>
+      <c r="AB218" s="4"/>
+      <c r="AC218" s="4"/>
+      <c r="AD218" s="4"/>
+      <c r="AE218" s="4"/>
+      <c r="AF218" s="4"/>
+      <c r="AG218" s="4"/>
+      <c r="AH218" s="4"/>
+      <c r="AI218" s="4"/>
+      <c r="AJ218" s="4"/>
+    </row>
+    <row r="220" spans="4:36">
+      <c r="D220" t="s">
+        <v>50</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="221" spans="4:36">
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="4"/>
+      <c r="J221" s="4"/>
+      <c r="K221" s="4"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="4"/>
+      <c r="O221" s="4"/>
+      <c r="P221" s="4"/>
+      <c r="Q221" s="4"/>
+      <c r="R221" s="4"/>
+      <c r="S221" s="4"/>
+      <c r="T221" s="4"/>
+      <c r="U221" s="4"/>
+      <c r="V221" s="4"/>
+      <c r="W221" s="4"/>
+      <c r="X221" s="4"/>
+      <c r="Y221" s="4"/>
+      <c r="Z221" s="4"/>
+      <c r="AA221" s="4"/>
+      <c r="AB221" s="4"/>
+      <c r="AC221" s="4"/>
+      <c r="AD221" s="4"/>
+      <c r="AE221" s="4"/>
+      <c r="AF221" s="4"/>
+      <c r="AG221" s="4"/>
+      <c r="AH221" s="4"/>
+    </row>
+    <row r="222" spans="4:36">
+      <c r="D222" s="4"/>
+      <c r="E222" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="4"/>
+      <c r="I222" s="4"/>
+      <c r="J222" s="4"/>
+      <c r="K222" s="4"/>
+      <c r="L222" s="4"/>
+      <c r="M222" s="4"/>
+      <c r="N222" s="4"/>
+      <c r="O222" s="4"/>
+      <c r="P222" s="4"/>
+      <c r="Q222" s="4"/>
+      <c r="R222" s="4"/>
+      <c r="S222" s="4"/>
+      <c r="T222" s="4"/>
+      <c r="U222" s="4"/>
+      <c r="V222" s="4"/>
+      <c r="W222" s="4"/>
+      <c r="X222" s="4"/>
+      <c r="Y222" s="4"/>
+      <c r="Z222" s="4"/>
+      <c r="AA222" s="4"/>
+      <c r="AB222" s="4"/>
+      <c r="AC222" s="4"/>
+      <c r="AD222" s="4"/>
+      <c r="AE222" s="4"/>
+      <c r="AF222" s="4"/>
+      <c r="AG222" s="4"/>
+      <c r="AH222" s="4"/>
+    </row>
+    <row r="223" spans="4:36">
+      <c r="D223" s="4"/>
+      <c r="E223" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="4"/>
+      <c r="I223" s="4"/>
+      <c r="J223" s="4"/>
+      <c r="K223" s="4"/>
+      <c r="L223" s="4"/>
+      <c r="M223" s="4"/>
+      <c r="N223" s="4"/>
+      <c r="O223" s="4"/>
+      <c r="P223" s="4"/>
+      <c r="Q223" s="4"/>
+      <c r="R223" s="4"/>
+      <c r="S223" s="4"/>
+      <c r="T223" s="4"/>
+      <c r="U223" s="4"/>
+      <c r="V223" s="4"/>
+      <c r="W223" s="4"/>
+      <c r="X223" s="4"/>
+      <c r="Y223" s="4"/>
+      <c r="Z223" s="4"/>
+      <c r="AA223" s="4"/>
+      <c r="AB223" s="4"/>
+      <c r="AC223" s="4"/>
+      <c r="AD223" s="4"/>
+      <c r="AE223" s="4"/>
+      <c r="AF223" s="4"/>
+      <c r="AG223" s="4"/>
+      <c r="AH223" s="4"/>
+    </row>
+    <row r="224" spans="4:36">
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="4"/>
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="4"/>
+      <c r="O224" s="4"/>
+      <c r="P224" s="4"/>
+      <c r="Q224" s="4"/>
+      <c r="R224" s="4"/>
+      <c r="S224" s="4"/>
+      <c r="T224" s="4"/>
+      <c r="U224" s="4"/>
+      <c r="V224" s="4"/>
+      <c r="W224" s="4"/>
+      <c r="X224" s="4"/>
+      <c r="Y224" s="4"/>
+      <c r="Z224" s="4"/>
+      <c r="AA224" s="4"/>
+      <c r="AB224" s="4"/>
+      <c r="AC224" s="4"/>
+      <c r="AD224" s="4"/>
+      <c r="AE224" s="4"/>
+      <c r="AF224" s="4"/>
+      <c r="AG224" s="4"/>
+      <c r="AH224" s="4"/>
+    </row>
+    <row r="226" spans="4:4">
+      <c r="D226" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4">
+      <c r="D228" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4">
+      <c r="D229" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4">
+      <c r="D230" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Android/framework/Media.xlsx
+++ b/Android/framework/Media.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="375">
   <si>
     <t>★</t>
   </si>
@@ -1225,6 +1225,10 @@
   </si>
   <si>
     <t>构建完成后，可以在 out/Soong 中找到相应的 IDrmPlugin.h 文件。</t>
+  </si>
+  <si>
+    <t>https://android.googlesource.com/platform/system/core/+/master/init/README.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1982,7 +1986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:AZ71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
@@ -11690,10 +11694,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3"/>
+  <dimension ref="B3:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11703,12 +11707,18 @@
         <v>191</v>
       </c>
     </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="13" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>